--- a/Excel/Datas/Aircraft.xlsx
+++ b/Excel/Datas/Aircraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E0CF0B-E24C-4320-B46D-640A71D05AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB833C-5B6E-490F-A0D8-66A138667FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2835" windowWidth="21600" windowHeight="12015" xr2:uid="{5D3FF08E-D0B4-44C0-9BD4-B074541AEA5F}"/>
+    <workbookView xWindow="2430" yWindow="3285" windowWidth="21615" windowHeight="12015" xr2:uid="{5D3FF08E-D0B4-44C0-9BD4-B074541AEA5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>玩家战机</t>
   </si>
@@ -67,9 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>ThrusterId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,7 +147,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int#ref=StarForce.TbThruster</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字(测试本地化用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BB0A9E-2D7F-4BBC-A7EA-4D8886602B98}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,9 +642,10 @@
     <col min="5" max="7" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -640,78 +654,82 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>17</v>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -720,46 +738,50 @@
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
       <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>28</v>
+      <c r="M4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -793,8 +815,11 @@
       <c r="L5">
         <v>20000</v>
       </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10002</v>
       </c>
@@ -827,6 +852,9 @@
       </c>
       <c r="L6">
         <v>20001</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Datas/Aircraft.xlsx
+++ b/Excel/Datas/Aircraft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB833C-5B6E-490F-A0D8-66A138667FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9DAFF9-758B-454A-9AD6-2C5E830CCBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="3285" windowWidth="21615" windowHeight="12015" xr2:uid="{5D3FF08E-D0B4-44C0-9BD4-B074541AEA5F}"/>
+    <workbookView xWindow="2440" yWindow="3280" windowWidth="21620" windowHeight="12020" xr2:uid="{5D3FF08E-D0B4-44C0-9BD4-B074541AEA5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -171,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,21 +630,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BB0A9E-2D7F-4BBC-A7EA-4D8886602B98}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -684,7 +683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -723,7 +722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -740,7 +739,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -781,7 +780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -819,7 +818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="B6">
         <v>10002</v>
       </c>
